--- a/config_Release/act_054_byns_config.xlsx
+++ b/config_Release/act_054_byns_config.xlsx
@@ -39,6 +39,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每日</t>
     </r>
     <r>
@@ -201,12 +208,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -214,9 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,67 +314,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -301,7 +323,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,23 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,79 +372,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,103 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +563,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,15 +586,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +635,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -647,25 +663,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1144,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1177,10 +1184,10 @@
         <v>1000665</v>
       </c>
       <c r="C2" s="3">
-        <v>1623715200</v>
+        <v>1626134400</v>
       </c>
       <c r="D2" s="3">
-        <v>1624291199</v>
+        <v>1626710399</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>

--- a/config_Release/act_054_byns_config.xlsx
+++ b/config_Release/act_054_byns_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,10 +583,10 @@
         <v>1000665</v>
       </c>
       <c r="C2" s="3">
-        <v>1631577600</v>
+        <v>1632787200</v>
       </c>
       <c r="D2" s="3">
-        <v>1632153599</v>
+        <v>1633967999</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/act_054_byns_config.xlsx
+++ b/config_Release/act_054_byns_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,10 +583,10 @@
         <v>1000665</v>
       </c>
       <c r="C2" s="3">
-        <v>1632787200</v>
+        <v>1635811200</v>
       </c>
       <c r="D2" s="3">
-        <v>1633967999</v>
+        <v>1636387199</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>

--- a/config_Release/act_054_byns_config.xlsx
+++ b/config_Release/act_054_byns_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,10 +583,10 @@
         <v>1000665</v>
       </c>
       <c r="C2" s="3">
-        <v>1635811200</v>
+        <v>1638230400</v>
       </c>
       <c r="D2" s="3">
-        <v>1636387199</v>
+        <v>1638806399</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>

--- a/config_Release/act_054_byns_config.xlsx
+++ b/config_Release/act_054_byns_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,6 +48,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -67,6 +68,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点重置积分和奖励</t>
@@ -85,6 +87,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>及以上炮倍捕鱼可获得积分，获得积分数量</t>
@@ -103,6 +106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鱼的倍数</t>
@@ -214,11 +218,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -543,7 +549,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,10 +589,10 @@
         <v>1000665</v>
       </c>
       <c r="C2" s="3">
-        <v>1638230400</v>
+        <v>1641254400</v>
       </c>
       <c r="D2" s="3">
-        <v>1638806399</v>
+        <v>1641830399</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -697,7 +703,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
